--- a/Datasheets and documents/BOM.xlsx
+++ b/Datasheets and documents/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Altium\Altium-project\Datasheets and documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADC6758-7469-4D06-B7B1-EE206F694901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF608B1-5BE6-4939-AAEE-CC2410BFE1B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{D33CABEC-FF73-4874-8562-890F949DF2EE}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="95">
   <si>
     <t>Comment</t>
   </si>
@@ -229,9 +229,6 @@
     <t>R15, R16, R17</t>
   </si>
   <si>
-    <t>Article #</t>
-  </si>
-  <si>
     <t>RES 0603</t>
   </si>
   <si>
@@ -259,21 +256,12 @@
     <t>Diode LL4148</t>
   </si>
   <si>
-    <t>VBAT 3.3V battery</t>
-  </si>
-  <si>
-    <t>Batterihållare?</t>
-  </si>
-  <si>
     <t>Header, 6-Pin (hona)</t>
   </si>
   <si>
     <t>Header, 2-Pin (hane)</t>
   </si>
   <si>
-    <t>Header, 2-Pin (??)</t>
-  </si>
-  <si>
     <t>KPT-1608LVSECK-J3-PRV</t>
   </si>
   <si>
@@ -283,26 +271,78 @@
     <t>LED, 1,6mm x 0,8mm, Röd, SMD (ytmontering), 0603, 2 mA, 1.8 V, 625 nm</t>
   </si>
   <si>
-    <t>P3</t>
-  </si>
-  <si>
-    <t>P1, P4</t>
-  </si>
-  <si>
     <t>SSQ-106-01-G-S</t>
   </si>
   <si>
     <t>Hålavstånd?</t>
+  </si>
+  <si>
+    <t>NP7-12</t>
+  </si>
+  <si>
+    <t>Uppladdningsbart batteri, NP serien, Ventilstyrd, En cell, 12 V, Bly, 7 Ah, Snabbanslutning</t>
+  </si>
+  <si>
+    <t>LR23A/A23 Alkaliskt batteri</t>
+  </si>
+  <si>
+    <t>VBAT 3.6V battery</t>
+  </si>
+  <si>
+    <t>32359 (Kjell och company)</t>
+  </si>
+  <si>
+    <t>32262 (Kjell och company)</t>
+  </si>
+  <si>
+    <t>3,6 V litium tionylklorid AA</t>
+  </si>
+  <si>
+    <t>Batterihållare för AA</t>
+  </si>
+  <si>
+    <t>39753 (Kjell och company)</t>
+  </si>
+  <si>
+    <t>Batterihållare för N eller 23A</t>
+  </si>
+  <si>
+    <t>39740 (Kjell och company)</t>
+  </si>
+  <si>
+    <t>P3, P4, P1</t>
+  </si>
+  <si>
+    <t>Batterihållare för AA-batteri (R6)</t>
+  </si>
+  <si>
+    <t>Batterihållare för N- eller 23A-batteri. Lödanslutning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Article # </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -360,7 +400,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
@@ -370,6 +410,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -684,18 +732,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BBFC159-917A-4BB2-83F1-0505A1FDAF74}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="73.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="73.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -705,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>3</v>
@@ -719,10 +767,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -736,7 +784,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>36</v>
@@ -753,16 +801,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>39</v>
@@ -770,7 +818,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>40</v>
@@ -787,7 +835,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>43</v>
@@ -806,414 +854,469 @@
       <c r="A7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="5">
+        <v>61300211121</v>
+      </c>
       <c r="C7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="5">
-        <v>61300211121</v>
+        <v>47</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="C9" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>85</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
+      <c r="C10" s="1"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" t="s">
-        <v>75</v>
-      </c>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="E11" s="2"/>
-      <c r="F11" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="1">
-        <v>2</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="A12" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="8">
+        <v>1</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="1">
-        <v>3</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="A13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="8">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="1">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="1">
-        <v>5</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="A15" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="12">
+        <v>1</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="1">
-        <v>4</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="A16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="8">
+        <v>1</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="7"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="1">
-        <v>2</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="1">
         <v>3</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="1">
         <v>5</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="1">
         <v>2</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="1">
         <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E33" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>33</v>
       </c>
     </row>

--- a/Datasheets and documents/BOM.xlsx
+++ b/Datasheets and documents/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Altium\Altium-project\Datasheets and documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF608B1-5BE6-4939-AAEE-CC2410BFE1B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E87542-EAC1-45C4-8748-641A73E1CEE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{D33CABEC-FF73-4874-8562-890F949DF2EE}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="94">
   <si>
     <t>Comment</t>
   </si>
@@ -272,9 +272,6 @@
   </si>
   <si>
     <t>SSQ-106-01-G-S</t>
-  </si>
-  <si>
-    <t>Hålavstånd?</t>
   </si>
   <si>
     <t>NP7-12</t>
@@ -362,7 +359,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -385,17 +382,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -409,7 +395,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -418,6 +403,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -732,10 +718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BBFC159-917A-4BB2-83F1-0505A1FDAF74}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -748,12 +734,12 @@
     <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>3</v>
@@ -765,7 +751,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>72</v>
       </c>
@@ -782,7 +768,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>70</v>
       </c>
@@ -799,7 +785,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>76</v>
       </c>
@@ -816,7 +802,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>69</v>
       </c>
@@ -833,7 +819,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>68</v>
       </c>
@@ -849,8 +835,11 @@
       <c r="E6" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>46</v>
       </c>
@@ -864,13 +853,13 @@
         <v>74</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>47</v>
       </c>
@@ -886,11 +875,11 @@
       <c r="E8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F8" s="8"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>67</v>
       </c>
@@ -906,97 +895,107 @@
       <c r="E9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F9" s="8"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F10" s="8"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="C12" s="7">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12" s="8">
-        <v>1</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" s="8">
-        <v>1</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="C15" s="11">
+        <v>1</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C15" s="12">
-        <v>1</v>
-      </c>
-      <c r="D15" s="10" t="s">
+      <c r="B16" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C16" s="8">
-        <v>1</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E16" s="7"/>
+      <c r="E16" s="6"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>

--- a/Datasheets and documents/BOM.xlsx
+++ b/Datasheets and documents/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Altium\Altium-project\Datasheets and documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E87542-EAC1-45C4-8748-641A73E1CEE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B44F6B-6691-432B-A746-783D5404EC84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{D33CABEC-FF73-4874-8562-890F949DF2EE}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="81">
   <si>
     <t>Comment</t>
   </si>
@@ -145,12 +145,6 @@
     <t>D1, D2</t>
   </si>
   <si>
-    <t>SS34-E3/57T</t>
-  </si>
-  <si>
-    <t>DIODE SCHOTTKY 40V 3A DO214AB</t>
-  </si>
-  <si>
     <t>D3</t>
   </si>
   <si>
@@ -235,9 +229,6 @@
     <t>Multilayer Ceramic Capacitors 0805</t>
   </si>
   <si>
-    <t>12V battery</t>
-  </si>
-  <si>
     <t>Transistor PBHV8115X,115</t>
   </si>
   <si>
@@ -247,9 +238,6 @@
     <t>330 nH inductor LQM21NNR33K10D</t>
   </si>
   <si>
-    <t>Schottky SS34-E3/57T</t>
-  </si>
-  <si>
     <t>FDLL4148</t>
   </si>
   <si>
@@ -274,72 +262,32 @@
     <t>SSQ-106-01-G-S</t>
   </si>
   <si>
-    <t>NP7-12</t>
-  </si>
-  <si>
-    <t>Uppladdningsbart batteri, NP serien, Ventilstyrd, En cell, 12 V, Bly, 7 Ah, Snabbanslutning</t>
-  </si>
-  <si>
-    <t>LR23A/A23 Alkaliskt batteri</t>
-  </si>
-  <si>
-    <t>VBAT 3.6V battery</t>
-  </si>
-  <si>
-    <t>32359 (Kjell och company)</t>
-  </si>
-  <si>
-    <t>32262 (Kjell och company)</t>
-  </si>
-  <si>
-    <t>3,6 V litium tionylklorid AA</t>
-  </si>
-  <si>
-    <t>Batterihållare för AA</t>
-  </si>
-  <si>
-    <t>39753 (Kjell och company)</t>
-  </si>
-  <si>
-    <t>Batterihållare för N eller 23A</t>
-  </si>
-  <si>
-    <t>39740 (Kjell och company)</t>
-  </si>
-  <si>
     <t>P3, P4, P1</t>
   </si>
   <si>
-    <t>Batterihållare för AA-batteri (R6)</t>
-  </si>
-  <si>
-    <t>Batterihållare för N- eller 23A-batteri. Lödanslutning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Article # </t>
+    <t>Manufacturer article #</t>
+  </si>
+  <si>
+    <t>Distributor article #</t>
+  </si>
+  <si>
+    <t>Schottky SS54</t>
+  </si>
+  <si>
+    <t>SS54</t>
+  </si>
+  <si>
+    <t>Schottky-likriktare, 40 V, 5 A, Enkel, DO-214AB (SMC), 2 Stift, 550 mV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -386,7 +334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
@@ -395,14 +343,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -718,605 +659,564 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BBFC159-917A-4BB2-83F1-0505A1FDAF74}">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="73.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.88671875" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="73.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="1">
+        <v>9843710</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1861427</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C4" s="1">
+        <v>2610406</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="1">
+        <v>9527923</v>
+      </c>
+      <c r="D5" s="1">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="E5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="1">
+        <v>9522220</v>
+      </c>
+      <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="B7" s="5">
         <v>61300211121</v>
       </c>
       <c r="C7" s="1">
+        <v>2356153</v>
+      </c>
+      <c r="D7" s="1">
         <v>3</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="C8" s="1">
+        <v>1668297</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="C9" s="1">
+        <v>2419456</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="1">
+        <v>7</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="1">
+        <v>5</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="1">
+        <v>2</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="1">
+        <v>2</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="1">
+        <v>2</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="1">
+        <v>2</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="1">
+        <v>4</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="1">
         <v>3</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="E26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="1">
+        <v>5</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="1">
+        <v>4</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="1">
         <v>2</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="7">
-        <v>1</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="7">
-        <v>1</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" s="11">
-        <v>1</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C16" s="7">
-        <v>1</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="1">
+      <c r="E30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="1">
         <v>3</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="1">
-        <v>5</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="1">
-        <v>4</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="1">
-        <v>2</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="2" t="s">
+      <c r="E31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="1">
-        <v>3</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="1">
-        <v>7</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="1">
-        <v>5</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="1">
-        <v>2</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="1">
-        <v>1</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="1">
-        <v>2</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="1">
-        <v>1</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="1">
-        <v>2</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="1">
-        <v>2</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="1">
-        <v>2</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="1">
-        <v>4</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="1">
-        <v>1</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="1">
-        <v>1</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="1">
-        <v>1</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="1">
-        <v>1</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="1">
-        <v>1</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Datasheets and documents/BOM.xlsx
+++ b/Datasheets and documents/BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Altium\Altium-project\Datasheets and documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myran\Documents\GitHub\Altium-project\Datasheets and documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B44F6B-6691-432B-A746-783D5404EC84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95854B1C-241C-430F-B9A8-A161C5A8CF85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{D33CABEC-FF73-4874-8562-890F949DF2EE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D33CABEC-FF73-4874-8562-890F949DF2EE}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="100">
   <si>
     <t>Comment</t>
   </si>
@@ -127,15 +127,9 @@
     <t>C28</t>
   </si>
   <si>
-    <t>100uF</t>
-  </si>
-  <si>
     <t>C29</t>
   </si>
   <si>
-    <t>1000uF</t>
-  </si>
-  <si>
     <t>C30</t>
   </si>
   <si>
@@ -175,9 +169,6 @@
     <t>Header 6</t>
   </si>
   <si>
-    <t>P2, P5, P6</t>
-  </si>
-  <si>
     <t>PBHV8115X,115</t>
   </si>
   <si>
@@ -278,16 +269,122 @@
   </si>
   <si>
     <t>Schottky-likriktare, 40 V, 5 A, Enkel, DO-214AB (SMC), 2 Stift, 550 mV</t>
+  </si>
+  <si>
+    <t>Header 10</t>
+  </si>
+  <si>
+    <t>Header, 10-pin (hona)</t>
+  </si>
+  <si>
+    <t>P6</t>
+  </si>
+  <si>
+    <t>P2, P5</t>
+  </si>
+  <si>
+    <t>C0805C103J5RACTU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	C0805C222J1GACAUTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	08055A270JAT2A</t>
+  </si>
+  <si>
+    <t>C0805C104J1RACTU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	C0805C152J5GACTU</t>
+  </si>
+  <si>
+    <t>C0805C470J1GACTU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	C0805C122J5GACTU</t>
+  </si>
+  <si>
+    <t>CC0805JRNPO9BN681</t>
+  </si>
+  <si>
+    <t>08055A100JAT2A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	C0805C104J1RACTU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	C0805X560J5GACTU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	C0805C221J5GACTU</t>
+  </si>
+  <si>
+    <t>CC0805JRNPO9BN101</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">100uF </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OBS!!! RATED VOLT = 2.5V</t>
+    </r>
+  </si>
+  <si>
+    <t>PMK212BBJ107MG-T</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1000uF </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OBS! ALUMINUM NO MODEL</t>
+    </r>
+  </si>
+  <si>
+    <t>MAL215097614E3</t>
+  </si>
+  <si>
+    <t>EEETK1H102AM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -307,7 +404,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -330,11 +427,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
@@ -345,6 +453,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -363,7 +473,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -659,15 +769,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BBFC159-917A-4BB2-83F1-0505A1FDAF74}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.88671875" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
@@ -681,10 +791,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
@@ -698,10 +808,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C2" s="1">
         <v>9843710</v>
@@ -710,18 +820,18 @@
         <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C3" s="1">
         <v>1861427</v>
@@ -730,18 +840,18 @@
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C4" s="1">
         <v>2610406</v>
@@ -750,18 +860,18 @@
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C5" s="1">
         <v>9527923</v>
@@ -770,18 +880,18 @@
         <v>2</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C6" s="1">
         <v>9522220</v>
@@ -790,10 +900,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -801,7 +911,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B7" s="5">
         <v>61300211121</v>
@@ -813,10 +923,10 @@
         <v>3</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="7"/>
@@ -824,22 +934,18 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1668297</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="1"/>
       <c r="D8" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="7"/>
@@ -847,22 +953,22 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="C9" s="1">
-        <v>2419456</v>
+        <v>1668297</v>
       </c>
       <c r="D9" s="1">
         <v>2</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="7"/>
@@ -870,18 +976,22 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2419456</v>
+      </c>
       <c r="D10" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="7"/>
@@ -889,334 +999,425 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="8">
+        <v>1650861</v>
+      </c>
       <c r="D11" s="1">
+        <v>7</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="G11" s="6"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2820997</v>
+      </c>
       <c r="D12" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2280677</v>
+      </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2522442</v>
+      </c>
       <c r="D14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1800811</v>
+      </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1800817</v>
+      </c>
       <c r="D16" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2773219</v>
+      </c>
       <c r="D17" s="1">
         <v>2</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="2">
+        <v>718543</v>
+      </c>
       <c r="D18" s="1">
         <v>2</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2280667</v>
+      </c>
       <c r="D19" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2522442</v>
+      </c>
       <c r="D20" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="2">
+        <v>2905717</v>
+      </c>
       <c r="D21" s="1">
         <v>1</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1414679</v>
+      </c>
       <c r="D22" s="1">
         <v>1</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="2">
+        <v>3606028</v>
+      </c>
       <c r="D23" s="1">
         <v>1</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" s="2">
+        <v>3217588</v>
+      </c>
       <c r="D24" s="1">
         <v>1</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="A25" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="9">
+        <v>2079198</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="1">
-        <v>3</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="2">
+        <v>2471968</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="1">
-        <v>1</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="1">
+        <v>4</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="1">
+        <v>2</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="1">
         <v>3</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>61</v>
+      <c r="E33" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Datasheets and documents/BOM.xlsx
+++ b/Datasheets and documents/BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myran\Documents\GitHub\Altium-project\Datasheets and documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Altium\Altium-project\Datasheets and documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95854B1C-241C-430F-B9A8-A161C5A8CF85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715BB338-8A48-475E-BF76-A2A8392198A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D33CABEC-FF73-4874-8562-890F949DF2EE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{D33CABEC-FF73-4874-8562-890F949DF2EE}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="101">
   <si>
     <t>Comment</t>
   </si>
@@ -361,6 +361,9 @@
   </si>
   <si>
     <t>EEETK1H102AM</t>
+  </si>
+  <si>
+    <t>SSQ-110-03-F-S</t>
   </si>
 </sst>
 </file>
@@ -473,7 +476,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -772,7 +775,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -936,8 +939,12 @@
       <c r="A8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="1"/>
+      <c r="B8" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2667433</v>
+      </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>

--- a/Datasheets and documents/BOM.xlsx
+++ b/Datasheets and documents/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Altium\Altium-project\Datasheets and documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715BB338-8A48-475E-BF76-A2A8392198A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA92781-A914-4DC7-8489-9058F9243377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{D33CABEC-FF73-4874-8562-890F949DF2EE}"/>
   </bookViews>
@@ -775,7 +775,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Datasheets and documents/BOM.xlsx
+++ b/Datasheets and documents/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Altium\Altium-project\Datasheets and documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA92781-A914-4DC7-8489-9058F9243377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3F6BD1-1CF6-43CA-9BC1-0351FF9FEC6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{D33CABEC-FF73-4874-8562-890F949DF2EE}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="102">
   <si>
     <t>Comment</t>
   </si>
@@ -259,9 +259,6 @@
     <t>Manufacturer article #</t>
   </si>
   <si>
-    <t>Distributor article #</t>
-  </si>
-  <si>
     <t>Schottky SS54</t>
   </si>
   <si>
@@ -322,55 +319,35 @@
     <t>CC0805JRNPO9BN101</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">100uF </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>OBS!!! RATED VOLT = 2.5V</t>
-    </r>
-  </si>
-  <si>
-    <t>PMK212BBJ107MG-T</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1000uF </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>OBS! ALUMINUM NO MODEL</t>
-    </r>
-  </si>
-  <si>
-    <t>MAL215097614E3</t>
-  </si>
-  <si>
     <t>EEETK1H102AM</t>
   </si>
   <si>
     <t>SSQ-110-03-F-S</t>
+  </si>
+  <si>
+    <t>SMD aluminium-elektrolytkondensator, Radiell burk - Ytmontering, 1000 µF, 50 V, 0.14 ohm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000uF </t>
+  </si>
+  <si>
+    <t xml:space="preserve">100uF </t>
+  </si>
+  <si>
+    <t>EEETC1C101P</t>
+  </si>
+  <si>
+    <t>SMD aluminium-elektrolytkondensator, Radiell burk - Ytmontering, 100 µF, 16 V, 0.2 ohm</t>
+  </si>
+  <si>
+    <t>Distributor article # (Farnell)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -383,14 +360,6 @@
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -772,19 +741,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BBFC159-917A-4BB2-83F1-0505A1FDAF74}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.88671875" customWidth="1"/>
+    <col min="1" max="1" width="30.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="73.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="76.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -797,7 +766,7 @@
         <v>73</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
@@ -831,10 +800,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="C3" s="1">
         <v>1861427</v>
@@ -843,7 +812,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>34</v>
@@ -937,10 +906,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C8" s="1">
         <v>2667433</v>
@@ -949,10 +918,10 @@
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="7"/>
@@ -975,7 +944,7 @@
         <v>66</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="7"/>
@@ -1009,7 +978,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C11" s="8">
         <v>1650861</v>
@@ -1032,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C12" s="2">
         <v>2820997</v>
@@ -1054,7 +1023,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C13" s="2">
         <v>2280677</v>
@@ -1076,7 +1045,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C14" s="2">
         <v>2522442</v>
@@ -1096,7 +1065,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C15" s="2">
         <v>1800811</v>
@@ -1116,7 +1085,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C16" s="2">
         <v>1800817</v>
@@ -1136,7 +1105,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C17" s="2">
         <v>2773219</v>
@@ -1156,7 +1125,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C18" s="2">
         <v>718543</v>
@@ -1176,7 +1145,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C19" s="2">
         <v>2280667</v>
@@ -1196,7 +1165,7 @@
         <v>22</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C20" s="2">
         <v>2522442</v>
@@ -1216,7 +1185,7 @@
         <v>24</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C21" s="2">
         <v>2905717</v>
@@ -1236,7 +1205,7 @@
         <v>26</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C22" s="2">
         <v>1414679</v>
@@ -1256,7 +1225,7 @@
         <v>28</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C23" s="2">
         <v>3606028</v>
@@ -1273,19 +1242,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C24" s="2">
-        <v>3217588</v>
+        <v>2612035</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>30</v>
@@ -1296,7 +1265,7 @@
         <v>97</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C25" s="9">
         <v>2079198</v>
@@ -1305,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>31</v>
@@ -1313,117 +1282,105 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
-      <c r="B26" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C26" s="2">
-        <v>2471968</v>
-      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
+      <c r="A27" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="D27" s="1">
+        <v>3</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="1">
-        <v>3</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33" s="2" t="s">
         <v>58</v>
       </c>
     </row>

--- a/Datasheets and documents/BOM.xlsx
+++ b/Datasheets and documents/BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Altium\Altium-project\Datasheets and documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3F6BD1-1CF6-43CA-9BC1-0351FF9FEC6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F85F24-204B-4936-9D20-E265224987C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{D33CABEC-FF73-4874-8562-890F949DF2EE}"/>
   </bookViews>
@@ -347,7 +347,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,8 +356,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
-      <color rgb="FF333333"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -414,19 +428,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -744,7 +762,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -779,504 +797,504 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="11">
         <v>9843710</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="11">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="8">
         <v>1861427</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="8">
         <v>1</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="11">
         <v>2610406</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="11">
         <v>1</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="11">
         <v>9527923</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="11">
         <v>2</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="10" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="11">
         <v>9522220</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="11">
         <v>1</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="9">
         <v>61300211121</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="8">
         <v>2356153</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="8">
         <v>3</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="8">
         <v>2667433</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="8">
         <v>1</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="8">
         <v>1668297</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="8">
         <v>2</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="11">
         <v>2419456</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="11">
         <v>2</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="13">
         <v>1650861</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="11">
         <v>7</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="10">
         <v>2820997</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="11">
         <v>5</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="10">
         <v>2280677</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="11">
         <v>2</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="10">
         <v>2522442</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="11">
         <v>1</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="10">
         <v>1800811</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="11">
         <v>2</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="10">
         <v>1800817</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="11">
         <v>1</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="10">
         <v>2773219</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="11">
         <v>2</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="10">
         <v>718543</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="11">
         <v>2</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="10">
         <v>2280667</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="11">
         <v>2</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="10">
         <v>2522442</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="11">
         <v>4</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="10">
         <v>2905717</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="11">
         <v>1</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="10" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="10">
         <v>1414679</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="11">
         <v>1</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="10">
         <v>3606028</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="11">
         <v>1</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="10">
         <v>2612035</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="11">
         <v>1</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="12">
         <v>2079198</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="11">
         <v>1</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="10" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1289,82 +1307,82 @@
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="1">
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="11">
         <v>3</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="10" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="1">
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="11">
         <v>1</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="10" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="1">
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="11">
         <v>5</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="10" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="1">
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="11">
         <v>4</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="10" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="1">
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="11">
         <v>2</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" s="10" t="s">
         <v>56</v>
       </c>
     </row>
